--- a/analysis-service/positioningtest.xlsx
+++ b/analysis-service/positioningtest.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -672,92 +672,92 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>_-GURU_</t>
+          <t>trautwainn</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1905</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dRuv15</t>
+          <t>_-GURU_</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07140000000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trautwainn</t>
+          <t>dRuv15</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -772,18 +772,18 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0588</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1429</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
